--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87ACDA-D6A0-684E-9108-98DC953EB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE4C99C-7E87-5641-9352-3DA1DF57442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -184,27 +184,6 @@
     <t>phi</t>
   </si>
   <si>
-    <t>Line 1-2</t>
-  </si>
-  <si>
-    <t>Line 1-4</t>
-  </si>
-  <si>
-    <t>Line 1-5</t>
-  </si>
-  <si>
-    <t>Line 2-3</t>
-  </si>
-  <si>
-    <t>Line 3-4</t>
-  </si>
-  <si>
-    <t>Line 4-5</t>
-  </si>
-  <si>
-    <t>Line 1-2 (2)</t>
-  </si>
-  <si>
     <t>gen</t>
   </si>
   <si>
@@ -631,6 +610,27 @@
       </rPr>
       <t>ESD1_1</t>
     </r>
+  </si>
+  <si>
+    <t>Line AB</t>
+  </si>
+  <si>
+    <t>Line AD</t>
+  </si>
+  <si>
+    <t>Line AE</t>
+  </si>
+  <si>
+    <t>Line BC</t>
+  </si>
+  <si>
+    <t>Line CD</t>
+  </si>
+  <si>
+    <t>Line DE</t>
+  </si>
+  <si>
+    <t>Line AB2</t>
   </si>
 </sst>
 </file>
@@ -1145,16 +1145,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1175,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1186,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1240,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1275,78 +1275,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
@@ -1476,63 +1476,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16">
@@ -1664,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>11</v>
@@ -1678,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E2" s="7">
         <v>0.03</v>
@@ -1693,7 +1693,7 @@
         <v>0.03</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16">
@@ -1701,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E3" s="7">
         <v>0.03</v>
@@ -1716,7 +1716,7 @@
         <v>0.03</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1742,81 +1742,81 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>11</v>
@@ -1859,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7">
         <v>0.03</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -1879,19 +1879,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E3" s="7">
         <v>0.03</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1917,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3">
         <v>0.1</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3">
         <v>0.1</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3">
         <v>0.1</v>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3">
         <v>0.1</v>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -2019,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2" s="7">
         <v>0.01</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -2039,19 +2039,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7">
         <v>0.01</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2077,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3">
         <v>0.1</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3">
         <v>0.1</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3">
         <v>0.1</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3">
         <v>0.1</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>230</v>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>230</v>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>230</v>
@@ -2319,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>230</v>
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>230</v>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2621,10 +2621,10 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -2764,13 +2764,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2830,51 +2830,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD37CC2-7295-9745-AE86-E7562082AFC8}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G2" s="14">
         <v>100</v>
@@ -2987,10 +2987,10 @@
         <v>5</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3081,7 +3081,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3100,25 +3100,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3126,16 +3126,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1450</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3000</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4000</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3000</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3270,9 +3270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3318,13 +3318,13 @@
         <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>36</v>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>7.1199999999999996E-3</v>
       </c>
       <c r="N2">
-        <v>999</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>6.5799999999999999E-3</v>
       </c>
       <c r="N3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>3.1260000000000003E-2</v>
       </c>
       <c r="N4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3623,13 +3623,13 @@
         <v>1.8519999999999998E-2</v>
       </c>
       <c r="N5">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3697,13 +3697,13 @@
         <v>6.7400000000000003E-3</v>
       </c>
       <c r="N6">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3771,13 +3771,13 @@
         <v>6.7400000000000003E-3</v>
       </c>
       <c r="N7">
-        <v>999</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3845,13 +3845,13 @@
         <v>7.1199999999999996E-3</v>
       </c>
       <c r="N8">
-        <v>999</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>

--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE4C99C-7E87-5641-9352-3DA1DF57442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944A19A0-37C0-D742-B090-BAF670D3ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="162">
   <si>
     <t>idx</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>ug</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
   </si>
   <si>
     <r>
@@ -631,6 +628,30 @@
   </si>
   <si>
     <t>Line AB2</t>
+  </si>
+  <si>
+    <t>PV_2</t>
+  </si>
+  <si>
+    <t>PV 2</t>
+  </si>
+  <si>
+    <t>GCost_5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>SFRC_5</t>
+  </si>
+  <si>
+    <t>SRC_5</t>
+  </si>
+  <si>
+    <t>NSRC_5</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1280,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1295,7 +1316,7 @@
         <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -1312,7 +1333,7 @@
         <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
@@ -1329,7 +1350,7 @@
         <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
@@ -1346,7 +1367,7 @@
         <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
@@ -1726,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369B7ED6-0339-A34F-8D4C-28B9C408DB19}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="207" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1819,7 +1840,25 @@
         <v>72</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1901,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB172BE7-B3C0-A449-8F62-0781AC3DED02}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+    <sheetView zoomScale="230" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1979,7 +2018,22 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2061,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF8DCDA-3E95-6745-801C-7005462F6D2D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2139,7 +2193,22 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2559,11 +2628,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2821,7 +2890,70 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>230</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>-99</v>
+      </c>
+      <c r="M5">
+        <v>99</v>
+      </c>
+      <c r="N5">
+        <v>-99</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.01</v>
+      </c>
+      <c r="U5">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2830,51 +2962,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD37CC2-7295-9745-AE86-E7562082AFC8}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2882,19 +3014,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="G2" s="14">
         <v>100</v>
@@ -3078,10 +3210,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A0BCC1-5090-3645-97C9-41B78CF5D933}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3261,7 +3393,43 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3270,9 +3438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3371,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3445,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3519,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3593,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3667,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3741,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3815,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944A19A0-37C0-D742-B090-BAF670D3ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF65570-1119-C249-9BD7-7C0F430326F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="SRCost" sheetId="18" r:id="rId16"/>
     <sheet name="NSR" sheetId="19" r:id="rId17"/>
     <sheet name="NSRCost" sheetId="20" r:id="rId18"/>
+    <sheet name="DCost" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="171">
   <si>
     <t>idx</t>
   </si>
@@ -652,6 +653,33 @@
   </si>
   <si>
     <t>1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
   </si>
 </sst>
 </file>
@@ -810,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -848,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2213,6 +2244,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5987A-571E-F945-B64B-3E7A6C256E6B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
@@ -2480,7 +2606,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2489,7 +2615,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2523,8 +2649,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2555,8 +2684,11 @@
       <c r="J2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2587,8 +2719,11 @@
       <c r="J3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2618,6 +2753,9 @@
       </c>
       <c r="J4">
         <v>0.9</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD37CC2-7295-9745-AE86-E7562082AFC8}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF65570-1119-C249-9BD7-7C0F430326F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A8D6E-CDFB-CC48-9536-4DDE21741093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -2248,7 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5987A-571E-F945-B64B-3E7A6C256E6B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3576,9 +3576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3781,7 +3781,7 @@
         <v>6.5799999999999999E-3</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>3.1260000000000003E-2</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>1.8519999999999998E-2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>6.7400000000000003E-3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>

--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A8D6E-CDFB-CC48-9536-4DDE21741093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0647B3F-81E1-4544-9333-03E5AC5A42B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -3350,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A0BCC1-5090-3645-97C9-41B78CF5D933}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3576,7 +3576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>

--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0647B3F-81E1-4544-9333-03E5AC5A42B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC68EF-6DDB-6F4C-AE31-CC2B4DE7466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="GCost" sheetId="11" r:id="rId7"/>
     <sheet name="Line" sheetId="5" r:id="rId8"/>
     <sheet name="Area" sheetId="6" r:id="rId9"/>
-    <sheet name="Region" sheetId="10" r:id="rId10"/>
+    <sheet name="Zone" sheetId="10" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="13" r:id="rId12"/>
     <sheet name="SFR" sheetId="15" r:id="rId13"/>
@@ -1253,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB94B98-B38A-EC46-833E-965628D04701}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3350,7 +3350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A0BCC1-5090-3645-97C9-41B78CF5D933}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_esd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC68EF-6DDB-6F4C-AE31-CC2B4DE7466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523BE5A3-07C6-D04A-9AAF-827414C027FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="174">
   <si>
     <t>idx</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>SFR3</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>NSR3</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB94B98-B38A-EC46-833E-965628D04701}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1694,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0222B4-433A-4847-9EF9-ED7322586C33}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1722,7 +1731,7 @@
         <v>126</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16">
@@ -1744,8 +1753,8 @@
       <c r="F2" s="7">
         <v>0.03</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16">
@@ -1767,11 +1776,35 @@
       <c r="F3" s="7">
         <v>0.03</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1896,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC4103-A416-3E41-9041-99544891E416}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1921,7 +1954,7 @@
         <v>87</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -1940,8 +1973,8 @@
       <c r="E2" s="7">
         <v>0.03</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
+      <c r="F2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -1960,11 +1993,32 @@
       <c r="E3" s="7">
         <v>0.03</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145CFC81-A232-1D4D-AC9D-AC7308213471}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2095,8 +2149,8 @@
       <c r="E1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -2115,8 +2169,8 @@
       <c r="E2" s="7">
         <v>0.01</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
+      <c r="F2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -2135,11 +2189,32 @@
       <c r="E3" s="7">
         <v>0.01</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4195,7 +4270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
